--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T08:59:27+00:00</t>
+    <t>2025-07-29T12:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T12:29:24+00:00</t>
+    <t>2025-07-29T13:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T13:49:48+00:00</t>
+    <t>2025-07-30T12:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T12:27:25+00:00</t>
+    <t>2025-07-30T14:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T14:31:57+00:00</t>
+    <t>2025-07-30T14:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T14:39:43+00:00</t>
+    <t>2025-07-30T15:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T15:05:09+00:00</t>
+    <t>2025-07-30T15:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T15:46:36+00:00</t>
+    <t>2025-07-31T09:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:39:48+00:00</t>
+    <t>2025-07-31T12:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T12:13:32+00:00</t>
+    <t>2025-07-31T12:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
